--- a/research/UNITEDHEALTH.xlsx
+++ b/research/UNITEDHEALTH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lsumail2-my.sharepoint.com/personal/jpilch2_lsu_edu/Documents/Desktop/-/Misc/Investment Related/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpilc\OneDrive - Louisiana State University\Desktop\models\research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="958" documentId="8_{38F8F95E-F296-4D3E-9B99-788787B9DA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{320718CD-3144-41F8-8B12-71F0CE392803}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5045C54-AD0C-49B3-8623-5D28CEE44CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4E2427E6-D2C1-49DA-B21C-AD4FF0F49230}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{4E2427E6-D2C1-49DA-B21C-AD4FF0F49230}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="51">
   <si>
     <t>PREMIUMS</t>
   </si>
@@ -112,9 +112,6 @@
     <t>MC</t>
   </si>
   <si>
-    <t>Q424</t>
-  </si>
-  <si>
     <t>Y/Y REVENUE GROWTH</t>
   </si>
   <si>
@@ -184,22 +181,19 @@
     <t>DCF MODEL</t>
   </si>
   <si>
-    <t>net income</t>
-  </si>
-  <si>
-    <t>rev-exp</t>
-  </si>
-  <si>
-    <t>beg re</t>
-  </si>
-  <si>
-    <t>dividends</t>
-  </si>
-  <si>
-    <t>end ret earn</t>
-  </si>
-  <si>
-    <t>AS OF 12/13/2024</t>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>AS OF 09/01/2025</t>
+  </si>
+  <si>
+    <t>IMPL PRICE</t>
+  </si>
+  <si>
+    <t>CURR PRICE</t>
+  </si>
+  <si>
+    <t>UNDERVAL</t>
   </si>
 </sst>
 </file>
@@ -469,7 +463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -559,9 +553,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -577,22 +568,14 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -608,6 +591,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -686,13 +684,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>125406</xdr:rowOff>
     </xdr:to>
@@ -709,8 +707,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4358640" y="0"/>
-          <a:ext cx="0" cy="12747936"/>
+          <a:off x="5715000" y="0"/>
+          <a:ext cx="0" cy="16996086"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1057,95 +1055,95 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="8.85546875" customWidth="1"/>
-    <col min="11" max="13" width="8.85546875" customWidth="1"/>
-    <col min="15" max="17" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83984375" customWidth="1"/>
+    <col min="3" max="3" width="12.578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="8.83984375" customWidth="1"/>
+    <col min="11" max="13" width="8.83984375" customWidth="1"/>
+    <col min="15" max="17" width="8.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="19"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C3" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C4" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C7" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C3" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C6" s="14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="15" t="s">
+    <row r="9" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C9" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="17" t="s">
+    <row r="12" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C12" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C14" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C17" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C19" s="13" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="13" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1164,111 +1162,115 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB055B29-20EC-4477-824A-1DD17EAC389C}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="8.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.68359375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.68359375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.41796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="8.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="23"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C3" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="27"/>
       <c r="E3" s="25"/>
       <c r="F3" s="26"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C4" s="29" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D4" s="30"/>
       <c r="E4" s="31"/>
       <c r="F4" s="32"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C5" s="28" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="26"/>
-      <c r="E5" s="36">
-        <v>515.76</v>
-      </c>
-      <c r="F5" s="39"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="35">
+        <v>309.87</v>
+      </c>
+      <c r="F5" s="38"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C6" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="37">
-        <v>920</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="36">
+        <v>905.67352500000004</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="37">
+      <c r="D7" s="57"/>
+      <c r="E7" s="36">
         <f>E5*E6</f>
-        <v>474499.2</v>
-      </c>
-      <c r="F7" s="40"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>280641.05519175</v>
+      </c>
+      <c r="F7" s="39"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="37">
-        <v>32400</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="57"/>
+      <c r="E8" s="36">
+        <f>28596+3424</f>
+        <v>32020</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="37">
-        <v>74101</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="57"/>
+      <c r="E9" s="36">
+        <f>73495+5698</f>
+        <v>79193</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C10" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="63"/>
-      <c r="E10" s="38">
+      <c r="D10" s="58"/>
+      <c r="E10" s="37">
         <f>E7-E8+E9</f>
-        <v>516200.2</v>
-      </c>
-      <c r="F10" s="41"/>
+        <v>327814.05519175</v>
+      </c>
+      <c r="F10" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1285,20 +1287,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2817390C-CED7-4546-A332-1B8314A04998}">
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="Q18" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="V24" sqref="V24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="20" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="20" width="7.26171875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.26171875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="7">
         <v>2020</v>
@@ -1335,7 +1342,7 @@
       <c r="U1" s="2"/>
       <c r="V1" s="3"/>
     </row>
-    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C2" s="4">
         <v>1</v>
       </c>
@@ -1412,7 +1419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -1477,8 +1484,12 @@
       <c r="U3" s="1">
         <v>77442</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V3" s="1">
+        <f>308810-SUM(S3:U3)</f>
+        <v>76483</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -1543,8 +1554,12 @@
       <c r="U4" s="1">
         <v>12631</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V4" s="1">
+        <f>50226-SUM(S4:U4)</f>
+        <v>13475</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -1609,8 +1624,12 @@
       <c r="U5" s="1">
         <v>9104</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V5" s="1">
+        <f>36040-SUM(S5:U5)</f>
+        <v>9298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -1675,13 +1694,17 @@
       <c r="U6" s="1">
         <v>1643</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V6" s="1">
+        <f>5202-SUM(S6:U6)</f>
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="10">
-        <f t="shared" ref="C7:U7" si="5">SUM(C3:C6)</f>
+        <f t="shared" ref="C7:V7" si="5">SUM(C3:C6)</f>
         <v>64421</v>
       </c>
       <c r="D7" s="10">
@@ -1756,8 +1779,12 @@
         <f t="shared" si="5"/>
         <v>100820</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V7" s="10">
+        <f t="shared" si="5"/>
+        <v>100807</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -1822,8 +1849,12 @@
       <c r="U8" s="1">
         <v>65957</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V8" s="1">
+        <f>264185-SUM(S8:U8)</f>
+        <v>67035</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -1888,8 +1919,12 @@
       <c r="U9" s="1">
         <v>13280</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V9" s="1">
+        <f>53013-SUM(S9:U9)</f>
+        <v>12494</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -1954,8 +1989,12 @@
       <c r="U10" s="1">
         <v>11834</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V10" s="1">
+        <f>46694-SUM(S10:U10)</f>
+        <v>12464</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -2020,13 +2059,17 @@
       <c r="U11" s="1">
         <v>1041</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V11" s="1">
+        <f>4099-SUM(S11:U11)</f>
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="10">
-        <f t="shared" ref="C12:U12" si="6">SUM(C8:C11)</f>
+        <f t="shared" ref="C12:V12" si="6">SUM(C8:C11)</f>
         <v>59425</v>
       </c>
       <c r="D12" s="10">
@@ -2101,13 +2144,17 @@
         <f t="shared" si="6"/>
         <v>92112</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V12" s="10">
+        <f t="shared" si="6"/>
+        <v>93034</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B13" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="11">
-        <f t="shared" ref="C13:U13" si="7">C7-C12</f>
+        <f t="shared" ref="C13:V13" si="7">C7-C12</f>
         <v>4996</v>
       </c>
       <c r="D13" s="11">
@@ -2182,8 +2229,12 @@
         <f t="shared" si="7"/>
         <v>8708</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="V13" s="11">
+        <f t="shared" si="7"/>
+        <v>7773</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -2248,8 +2299,12 @@
       <c r="U14" s="1">
         <v>-1074</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V14" s="1">
+        <f>-3906-SUM(S14:U14)</f>
+        <v>-1003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -2314,8 +2369,12 @@
       <c r="U15" s="1">
         <v>-20</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V15" s="1">
+        <f>-8310-SUM(S15:U15)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -2380,13 +2439,17 @@
       <c r="U16" s="1">
         <v>-1356</v>
       </c>
-    </row>
-    <row r="17" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V16" s="1">
+        <f>-4829-SUM(S16:U16)</f>
+        <v>-1007</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B17" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="11">
-        <f t="shared" ref="C17:U17" si="8">SUM(C13:C16)</f>
+        <f t="shared" ref="C17:V17" si="8">SUM(C13:C16)</f>
         <v>3465</v>
       </c>
       <c r="D17" s="11">
@@ -2461,11 +2524,15 @@
         <f t="shared" si="8"/>
         <v>6258</v>
       </c>
-    </row>
-    <row r="18" spans="2:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V17" s="11">
+        <f t="shared" si="8"/>
+        <v>5784</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="8">
         <f t="shared" ref="C23:U23" si="9">C13/C7</f>
@@ -2543,91 +2610,99 @@
         <f t="shared" si="9"/>
         <v>8.6371751636580049E-2</v>
       </c>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V23" s="8">
+        <f t="shared" ref="V23" si="10">V13/V7</f>
+        <v>7.7107740533891495E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
         <v>16</v>
       </c>
       <c r="C24" s="8">
-        <f t="shared" ref="C24:U24" si="10">C17/C7</f>
+        <f t="shared" ref="C24:U24" si="11">C17/C7</f>
         <v>5.3786808649353472E-2</v>
       </c>
       <c r="D24" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.10776014677009238</v>
       </c>
       <c r="E24" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.0003839361130308E-2</v>
       </c>
       <c r="F24" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.5926497319260085E-2</v>
       </c>
       <c r="G24" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>7.0915721693543793E-2</v>
       </c>
       <c r="H24" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.1300318279328671E-2</v>
       </c>
       <c r="I24" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.1536558054660821E-2</v>
       </c>
       <c r="J24" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.3111074949486728E-2</v>
       </c>
       <c r="K24" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.4230370934135167E-2</v>
       </c>
       <c r="L24" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.4718916496539367E-2</v>
       </c>
       <c r="M24" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.6556234084110072E-2</v>
       </c>
       <c r="N24" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.9284670298476817E-2</v>
       </c>
       <c r="O24" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.2807975546877545E-2</v>
       </c>
       <c r="P24" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.0891467444538924E-2</v>
       </c>
       <c r="Q24" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.5373913231775313E-2</v>
       </c>
       <c r="R24" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.0099335995001432E-2</v>
       </c>
       <c r="S24" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-1.2234959317006694E-2</v>
       </c>
       <c r="T24" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.4722067674877346E-2</v>
       </c>
       <c r="U24" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.2071017655227136E-2</v>
       </c>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V24" s="8">
+        <f t="shared" ref="V24" si="12">V17/V7</f>
+        <v>5.737696786929479E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8">
@@ -2635,77 +2710,81 @@
         <v>-3.5438754443426812E-2</v>
       </c>
       <c r="E25" s="8">
-        <f t="shared" ref="E25:U25" si="11">E7/D7-1</f>
+        <f t="shared" ref="E25:V25" si="13">E7/D7-1</f>
         <v>4.7909491776368718E-2</v>
       </c>
       <c r="F25" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5.4058204714735325E-3</v>
       </c>
       <c r="G25" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>7.2234866421250432E-2</v>
       </c>
       <c r="H25" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.6026554219613631E-2</v>
       </c>
       <c r="I25" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.4245453653201734E-2</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.9436802742718085E-2</v>
       </c>
       <c r="K25" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>8.6869262167256656E-2</v>
       </c>
       <c r="L25" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.2832474516214507E-3</v>
       </c>
       <c r="M25" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>6.9959667380370405E-3</v>
       </c>
       <c r="N25" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.3400993893242905E-2</v>
       </c>
       <c r="O25" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.11045212412576855</v>
       </c>
       <c r="P25" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.0573147251743187E-2</v>
       </c>
       <c r="Q25" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-5.8340419577408431E-3</v>
       </c>
       <c r="R25" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.236874871428407E-2</v>
       </c>
       <c r="S25" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5.6858737437385454E-2</v>
       </c>
       <c r="T25" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-9.4292356407070788E-3</v>
       </c>
       <c r="U25" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.9877598502857641E-2</v>
       </c>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V25" s="8">
+        <f t="shared" si="13"/>
+        <v>-1.289426701051033E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8">
@@ -2713,72 +2792,76 @@
         <v>-0.10985275557425322</v>
       </c>
       <c r="E26" s="8">
-        <f t="shared" ref="E26:U26" si="12">E12/D12-1</f>
+        <f t="shared" ref="E26:V26" si="14">E12/D12-1</f>
         <v>0.14305159082745722</v>
       </c>
       <c r="F26" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.457660756813973E-2</v>
       </c>
       <c r="G26" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.4326069410815165E-2</v>
       </c>
       <c r="H26" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.9720913374410962E-2</v>
       </c>
       <c r="I26" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.9619546087568773E-2</v>
       </c>
       <c r="J26" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2.3669793621013069E-2</v>
       </c>
       <c r="K26" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7.3267646110084739E-2</v>
       </c>
       <c r="L26" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.3661388816865738E-5</v>
       </c>
       <c r="M26" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.1693989071037709E-3</v>
       </c>
       <c r="N26" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.3554853469876855E-2</v>
       </c>
       <c r="O26" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.10473542742700537</v>
       </c>
       <c r="P26" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.1938696404078852E-2</v>
       </c>
       <c r="Q26" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-1.1915706102821555E-2</v>
       </c>
       <c r="R26" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.4627542195980299E-2</v>
       </c>
       <c r="S26" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.9109041020083408E-2</v>
       </c>
       <c r="T26" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-9.6337016273879694E-3</v>
       </c>
       <c r="U26" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.2442295009892357E-2</v>
+      </c>
+      <c r="V26" s="8">
+        <f t="shared" si="14"/>
+        <v>1.0009553586937558E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2795,28 +2878,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0888499-3247-4B46-B85D-44CAD6C9F224}">
-  <dimension ref="A1:AA44"/>
+  <dimension ref="A1:CB44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="27" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="100" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="8.26171875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="7.26171875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.26171875" bestFit="1" customWidth="1"/>
+    <col min="17" max="27" width="7.26171875" bestFit="1" customWidth="1"/>
+    <col min="28" max="100" width="6.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:80" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>15</v>
@@ -2851,8 +2932,209 @@
       <c r="M1" s="14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AY1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AZ1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="BB1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="BC1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="BD1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="BE1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="BF1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="BG1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="BH1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="BI1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="BJ1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="BK1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="BL1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="BM1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="BN1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="BO1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="BP1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="BQ1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="BR1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="BS1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="BT1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="BU1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="BV1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="BW1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="BX1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="BY1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="BZ1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CA1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="CB1" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:80" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="C2" s="15">
         <v>2019</v>
       </c>
@@ -2896,8 +3178,276 @@
         <f t="shared" si="1"/>
         <v>2029</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="N2" s="15">
+        <f t="shared" ref="N2" si="2">M2+1</f>
+        <v>2030</v>
+      </c>
+      <c r="O2" s="15">
+        <f t="shared" ref="O2" si="3">N2+1</f>
+        <v>2031</v>
+      </c>
+      <c r="P2" s="15">
+        <f t="shared" ref="P2" si="4">O2+1</f>
+        <v>2032</v>
+      </c>
+      <c r="Q2" s="15">
+        <f t="shared" ref="Q2" si="5">P2+1</f>
+        <v>2033</v>
+      </c>
+      <c r="R2" s="15">
+        <f t="shared" ref="R2" si="6">Q2+1</f>
+        <v>2034</v>
+      </c>
+      <c r="S2" s="15">
+        <f t="shared" ref="S2" si="7">R2+1</f>
+        <v>2035</v>
+      </c>
+      <c r="T2" s="15">
+        <f t="shared" ref="T2" si="8">S2+1</f>
+        <v>2036</v>
+      </c>
+      <c r="U2" s="15">
+        <f t="shared" ref="U2" si="9">T2+1</f>
+        <v>2037</v>
+      </c>
+      <c r="V2" s="15">
+        <f t="shared" ref="V2" si="10">U2+1</f>
+        <v>2038</v>
+      </c>
+      <c r="W2" s="15">
+        <f t="shared" ref="W2" si="11">V2+1</f>
+        <v>2039</v>
+      </c>
+      <c r="X2" s="15">
+        <f t="shared" ref="X2" si="12">W2+1</f>
+        <v>2040</v>
+      </c>
+      <c r="Y2" s="15">
+        <f t="shared" ref="Y2" si="13">X2+1</f>
+        <v>2041</v>
+      </c>
+      <c r="Z2" s="15">
+        <f t="shared" ref="Z2" si="14">Y2+1</f>
+        <v>2042</v>
+      </c>
+      <c r="AA2" s="15">
+        <f t="shared" ref="AA2" si="15">Z2+1</f>
+        <v>2043</v>
+      </c>
+      <c r="AB2" s="15">
+        <f t="shared" ref="AB2" si="16">AA2+1</f>
+        <v>2044</v>
+      </c>
+      <c r="AC2" s="15">
+        <f t="shared" ref="AC2" si="17">AB2+1</f>
+        <v>2045</v>
+      </c>
+      <c r="AD2" s="15">
+        <f t="shared" ref="AD2" si="18">AC2+1</f>
+        <v>2046</v>
+      </c>
+      <c r="AE2" s="15">
+        <f t="shared" ref="AE2" si="19">AD2+1</f>
+        <v>2047</v>
+      </c>
+      <c r="AF2" s="15">
+        <f t="shared" ref="AF2" si="20">AE2+1</f>
+        <v>2048</v>
+      </c>
+      <c r="AG2" s="15">
+        <f t="shared" ref="AG2" si="21">AF2+1</f>
+        <v>2049</v>
+      </c>
+      <c r="AH2" s="15">
+        <f t="shared" ref="AH2" si="22">AG2+1</f>
+        <v>2050</v>
+      </c>
+      <c r="AI2" s="15">
+        <f t="shared" ref="AI2" si="23">AH2+1</f>
+        <v>2051</v>
+      </c>
+      <c r="AJ2" s="15">
+        <f t="shared" ref="AJ2" si="24">AI2+1</f>
+        <v>2052</v>
+      </c>
+      <c r="AK2" s="15">
+        <f t="shared" ref="AK2" si="25">AJ2+1</f>
+        <v>2053</v>
+      </c>
+      <c r="AL2" s="15">
+        <f t="shared" ref="AL2" si="26">AK2+1</f>
+        <v>2054</v>
+      </c>
+      <c r="AM2" s="15">
+        <f t="shared" ref="AM2" si="27">AL2+1</f>
+        <v>2055</v>
+      </c>
+      <c r="AN2" s="15">
+        <f t="shared" ref="AN2" si="28">AM2+1</f>
+        <v>2056</v>
+      </c>
+      <c r="AO2" s="15">
+        <f t="shared" ref="AO2" si="29">AN2+1</f>
+        <v>2057</v>
+      </c>
+      <c r="AP2" s="15">
+        <f t="shared" ref="AP2" si="30">AO2+1</f>
+        <v>2058</v>
+      </c>
+      <c r="AQ2" s="15">
+        <f t="shared" ref="AQ2" si="31">AP2+1</f>
+        <v>2059</v>
+      </c>
+      <c r="AR2" s="15">
+        <f t="shared" ref="AR2" si="32">AQ2+1</f>
+        <v>2060</v>
+      </c>
+      <c r="AS2" s="15">
+        <f t="shared" ref="AS2" si="33">AR2+1</f>
+        <v>2061</v>
+      </c>
+      <c r="AT2" s="15">
+        <f t="shared" ref="AT2" si="34">AS2+1</f>
+        <v>2062</v>
+      </c>
+      <c r="AU2" s="15">
+        <f t="shared" ref="AU2" si="35">AT2+1</f>
+        <v>2063</v>
+      </c>
+      <c r="AV2" s="15">
+        <f t="shared" ref="AV2" si="36">AU2+1</f>
+        <v>2064</v>
+      </c>
+      <c r="AW2" s="15">
+        <f t="shared" ref="AW2" si="37">AV2+1</f>
+        <v>2065</v>
+      </c>
+      <c r="AX2" s="15">
+        <f t="shared" ref="AX2" si="38">AW2+1</f>
+        <v>2066</v>
+      </c>
+      <c r="AY2" s="15">
+        <f t="shared" ref="AY2" si="39">AX2+1</f>
+        <v>2067</v>
+      </c>
+      <c r="AZ2" s="15">
+        <f t="shared" ref="AZ2" si="40">AY2+1</f>
+        <v>2068</v>
+      </c>
+      <c r="BA2" s="15">
+        <f t="shared" ref="BA2" si="41">AZ2+1</f>
+        <v>2069</v>
+      </c>
+      <c r="BB2" s="15">
+        <f t="shared" ref="BB2" si="42">BA2+1</f>
+        <v>2070</v>
+      </c>
+      <c r="BC2" s="15">
+        <f t="shared" ref="BC2" si="43">BB2+1</f>
+        <v>2071</v>
+      </c>
+      <c r="BD2" s="15">
+        <f t="shared" ref="BD2" si="44">BC2+1</f>
+        <v>2072</v>
+      </c>
+      <c r="BE2" s="15">
+        <f t="shared" ref="BE2" si="45">BD2+1</f>
+        <v>2073</v>
+      </c>
+      <c r="BF2" s="15">
+        <f t="shared" ref="BF2" si="46">BE2+1</f>
+        <v>2074</v>
+      </c>
+      <c r="BG2" s="15">
+        <f t="shared" ref="BG2" si="47">BF2+1</f>
+        <v>2075</v>
+      </c>
+      <c r="BH2" s="15">
+        <f t="shared" ref="BH2" si="48">BG2+1</f>
+        <v>2076</v>
+      </c>
+      <c r="BI2" s="15">
+        <f t="shared" ref="BI2" si="49">BH2+1</f>
+        <v>2077</v>
+      </c>
+      <c r="BJ2" s="15">
+        <f t="shared" ref="BJ2" si="50">BI2+1</f>
+        <v>2078</v>
+      </c>
+      <c r="BK2" s="15">
+        <f t="shared" ref="BK2" si="51">BJ2+1</f>
+        <v>2079</v>
+      </c>
+      <c r="BL2" s="15">
+        <f t="shared" ref="BL2" si="52">BK2+1</f>
+        <v>2080</v>
+      </c>
+      <c r="BM2" s="15">
+        <f t="shared" ref="BM2" si="53">BL2+1</f>
+        <v>2081</v>
+      </c>
+      <c r="BN2" s="15">
+        <f t="shared" ref="BN2" si="54">BM2+1</f>
+        <v>2082</v>
+      </c>
+      <c r="BO2" s="15">
+        <f t="shared" ref="BO2" si="55">BN2+1</f>
+        <v>2083</v>
+      </c>
+      <c r="BP2" s="15">
+        <f t="shared" ref="BP2" si="56">BO2+1</f>
+        <v>2084</v>
+      </c>
+      <c r="BQ2" s="15">
+        <f t="shared" ref="BQ2" si="57">BP2+1</f>
+        <v>2085</v>
+      </c>
+      <c r="BR2" s="15">
+        <f t="shared" ref="BR2" si="58">BQ2+1</f>
+        <v>2086</v>
+      </c>
+      <c r="BS2" s="15">
+        <f t="shared" ref="BS2" si="59">BR2+1</f>
+        <v>2087</v>
+      </c>
+      <c r="BT2" s="15">
+        <f t="shared" ref="BT2" si="60">BS2+1</f>
+        <v>2088</v>
+      </c>
+      <c r="BU2" s="15">
+        <f t="shared" ref="BU2" si="61">BT2+1</f>
+        <v>2089</v>
+      </c>
+      <c r="BV2" s="15">
+        <f t="shared" ref="BV2" si="62">BU2+1</f>
+        <v>2090</v>
+      </c>
+      <c r="BW2" s="15">
+        <f t="shared" ref="BW2" si="63">BV2+1</f>
+        <v>2091</v>
+      </c>
+      <c r="BX2" s="15">
+        <f t="shared" ref="BX2" si="64">BW2+1</f>
+        <v>2092</v>
+      </c>
+      <c r="BY2" s="15">
+        <f t="shared" ref="BY2" si="65">BX2+1</f>
+        <v>2093</v>
+      </c>
+      <c r="BZ2" s="15">
+        <f t="shared" ref="BZ2" si="66">BY2+1</f>
+        <v>2094</v>
+      </c>
+      <c r="CA2" s="15">
+        <f t="shared" ref="CA2" si="67">BZ2+1</f>
+        <v>2095</v>
+      </c>
+      <c r="CB2" s="15">
+        <f t="shared" ref="CB2" si="68">CA2+1</f>
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="3" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -2916,8 +3466,11 @@
       <c r="G3" s="1">
         <v>290827</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H3" s="1">
+        <v>308810</v>
+      </c>
+    </row>
+    <row r="4" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -2936,8 +3489,11 @@
       <c r="G4" s="1">
         <v>42583</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H4" s="1">
+        <v>50226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -2956,8 +3512,11 @@
       <c r="G5" s="1">
         <v>34123</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H5" s="1">
+        <v>36040</v>
+      </c>
+    </row>
+    <row r="6" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -2976,8 +3535,11 @@
       <c r="G6" s="1">
         <v>4089</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H6" s="59">
+        <v>5202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
@@ -3001,8 +3563,12 @@
         <f>SUM(G3:G6)</f>
         <v>371622</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H7" s="10">
+        <f>SUM(H3:H6)</f>
+        <v>400278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -3021,8 +3587,11 @@
       <c r="G8" s="1">
         <v>241894</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H8" s="59">
+        <v>264185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -3041,8 +3610,11 @@
       <c r="G9" s="1">
         <v>54628</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H9" s="59">
+        <v>53013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -3061,8 +3633,11 @@
       <c r="G10" s="1">
         <v>38770</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H10" s="59">
+        <v>46694</v>
+      </c>
+    </row>
+    <row r="11" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -3081,8 +3656,11 @@
       <c r="G11" s="1">
         <v>3972</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H11" s="59">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="12" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="9" t="s">
         <v>9</v>
       </c>
@@ -3095,19 +3673,23 @@
         <v>234736</v>
       </c>
       <c r="E12" s="10">
-        <f t="shared" ref="E12:G12" si="2">SUM(E8:E11)</f>
+        <f t="shared" ref="E12:G12" si="69">SUM(E8:E11)</f>
         <v>263627</v>
       </c>
       <c r="F12" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="69"/>
         <v>295727</v>
       </c>
       <c r="G12" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="69"/>
         <v>339264</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="10">
+        <f t="shared" ref="H12" si="70">SUM(H8:H11)</f>
+        <v>367991</v>
+      </c>
+    </row>
+    <row r="13" spans="1:80" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B13" s="9" t="s">
         <v>10</v>
       </c>
@@ -3131,8 +3713,12 @@
         <f>G7-G8-G9-G10-G11</f>
         <v>32358</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="11">
+        <f>H7-H8-H9-H10-H11</f>
+        <v>32287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:80" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -3151,8 +3737,11 @@
       <c r="G14" s="1">
         <v>-3246</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H14" s="59">
+        <v>-3906</v>
+      </c>
+    </row>
+    <row r="15" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -3161,8 +3750,11 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="H15" s="59">
+        <v>-8310</v>
+      </c>
+    </row>
+    <row r="16" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -3181,22 +3773,25 @@
       <c r="G16" s="1">
         <v>-5968</v>
       </c>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="59"/>
-      <c r="Z16" s="59"/>
-      <c r="AA16" s="59"/>
-    </row>
-    <row r="17" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="59">
+        <v>-4829</v>
+      </c>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="54"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="54"/>
+      <c r="Z16" s="54"/>
+      <c r="AA16" s="54"/>
+    </row>
+    <row r="17" spans="2:80" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B17" s="9" t="s">
         <v>14</v>
       </c>
@@ -3220,115 +3815,327 @@
         <f>SUM(G13:G16)</f>
         <v>23144</v>
       </c>
-      <c r="H17" s="60">
-        <f t="shared" ref="H17:Q17" si="3">G17*$I$21</f>
-        <v>25921.280000000002</v>
-      </c>
-      <c r="I17" s="60">
-        <f t="shared" si="3"/>
-        <v>29031.833600000005</v>
-      </c>
-      <c r="J17" s="60">
-        <f t="shared" si="3"/>
-        <v>32515.653632000009</v>
-      </c>
-      <c r="K17" s="60">
-        <f t="shared" si="3"/>
-        <v>36417.532067840017</v>
-      </c>
-      <c r="L17" s="60">
-        <f t="shared" si="3"/>
-        <v>40787.63591598082</v>
-      </c>
-      <c r="M17" s="60">
-        <f t="shared" si="3"/>
-        <v>45682.152225898521</v>
-      </c>
-      <c r="N17" s="60">
-        <f t="shared" si="3"/>
-        <v>51164.010493006346</v>
-      </c>
-      <c r="O17" s="60">
-        <f t="shared" si="3"/>
-        <v>57303.691752167113</v>
-      </c>
-      <c r="P17" s="60">
-        <f t="shared" si="3"/>
-        <v>64180.134762427173</v>
-      </c>
-      <c r="Q17" s="60">
-        <f t="shared" si="3"/>
-        <v>71881.750933918447</v>
-      </c>
-      <c r="R17" s="60">
-        <f>Q17*$R$21</f>
-        <v>71881.750933918447</v>
-      </c>
-      <c r="S17" s="60">
-        <f t="shared" ref="S17:V17" si="4">R17*$R$21</f>
-        <v>71881.750933918447</v>
-      </c>
-      <c r="T17" s="60">
-        <f t="shared" si="4"/>
-        <v>71881.750933918447</v>
-      </c>
-      <c r="U17" s="60">
-        <f t="shared" si="4"/>
-        <v>71881.750933918447</v>
-      </c>
-      <c r="V17" s="60">
-        <f t="shared" si="4"/>
-        <v>71881.750933918447</v>
-      </c>
-      <c r="W17" s="60">
+      <c r="H17" s="11">
+        <f>SUM(H13:H16)</f>
+        <v>15242</v>
+      </c>
+      <c r="I17" s="55">
+        <f>H17*$I$21</f>
+        <v>16766.2</v>
+      </c>
+      <c r="J17" s="55">
+        <f t="shared" ref="J17:R17" si="71">I17*$I$21</f>
+        <v>18442.820000000003</v>
+      </c>
+      <c r="K17" s="55">
+        <f t="shared" si="71"/>
+        <v>20287.102000000006</v>
+      </c>
+      <c r="L17" s="55">
+        <f t="shared" si="71"/>
+        <v>22315.812200000008</v>
+      </c>
+      <c r="M17" s="55">
+        <f t="shared" si="71"/>
+        <v>24547.393420000011</v>
+      </c>
+      <c r="N17" s="55">
+        <f t="shared" si="71"/>
+        <v>27002.132762000016</v>
+      </c>
+      <c r="O17" s="55">
+        <f t="shared" si="71"/>
+        <v>29702.346038200019</v>
+      </c>
+      <c r="P17" s="55">
+        <f t="shared" si="71"/>
+        <v>32672.580642020024</v>
+      </c>
+      <c r="Q17" s="55">
+        <f t="shared" si="71"/>
+        <v>35939.838706222028</v>
+      </c>
+      <c r="R17" s="55">
+        <f t="shared" si="71"/>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="S17" s="55">
+        <f t="shared" ref="S17:V17" si="72">R17*$R$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="T17" s="55">
+        <f t="shared" si="72"/>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="U17" s="55">
+        <f t="shared" si="72"/>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="V17" s="55">
+        <f t="shared" si="72"/>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="W17" s="55">
         <f>V17*$W$21</f>
-        <v>71881.750933918447</v>
-      </c>
-      <c r="X17" s="60">
-        <f t="shared" ref="X17:AA17" si="5">W17*$W$21</f>
-        <v>71881.750933918447</v>
-      </c>
-      <c r="Y17" s="60">
-        <f t="shared" si="5"/>
-        <v>71881.750933918447</v>
-      </c>
-      <c r="Z17" s="60">
-        <f t="shared" si="5"/>
-        <v>71881.750933918447</v>
-      </c>
-      <c r="AA17" s="60">
-        <f t="shared" si="5"/>
-        <v>71881.750933918447</v>
-      </c>
-    </row>
-    <row r="18" spans="2:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O19" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="P19" s="35"/>
-    </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="H20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="O20" s="53" t="s">
+        <v>39533.822576844235</v>
+      </c>
+      <c r="X17" s="55">
+        <f t="shared" ref="X17:AA17" si="73">W17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="Y17" s="55">
+        <f t="shared" si="73"/>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="Z17" s="55">
+        <f t="shared" si="73"/>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="AA17" s="55">
+        <f t="shared" si="73"/>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="AB17" s="55">
+        <f t="shared" ref="AB17" si="74">AA17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="AC17" s="55">
+        <f t="shared" ref="AC17" si="75">AB17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="AD17" s="55">
+        <f t="shared" ref="AD17" si="76">AC17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="AE17" s="55">
+        <f t="shared" ref="AE17" si="77">AD17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="AF17" s="55">
+        <f t="shared" ref="AF17" si="78">AE17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="AG17" s="55">
+        <f t="shared" ref="AG17" si="79">AF17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="AH17" s="55">
+        <f t="shared" ref="AH17" si="80">AG17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="AI17" s="55">
+        <f t="shared" ref="AI17" si="81">AH17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="AJ17" s="55">
+        <f t="shared" ref="AJ17" si="82">AI17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="AK17" s="55">
+        <f t="shared" ref="AK17" si="83">AJ17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="AL17" s="55">
+        <f t="shared" ref="AL17" si="84">AK17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="AM17" s="55">
+        <f t="shared" ref="AM17" si="85">AL17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="AN17" s="55">
+        <f t="shared" ref="AN17" si="86">AM17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="AO17" s="55">
+        <f t="shared" ref="AO17" si="87">AN17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="AP17" s="55">
+        <f t="shared" ref="AP17" si="88">AO17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="AQ17" s="55">
+        <f t="shared" ref="AQ17" si="89">AP17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="AR17" s="55">
+        <f t="shared" ref="AR17" si="90">AQ17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="AS17" s="55">
+        <f t="shared" ref="AS17" si="91">AR17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="AT17" s="55">
+        <f t="shared" ref="AT17" si="92">AS17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="AU17" s="55">
+        <f t="shared" ref="AU17" si="93">AT17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="AV17" s="55">
+        <f t="shared" ref="AV17" si="94">AU17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="AW17" s="55">
+        <f t="shared" ref="AW17" si="95">AV17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="AX17" s="55">
+        <f t="shared" ref="AX17" si="96">AW17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="AY17" s="55">
+        <f t="shared" ref="AY17" si="97">AX17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="AZ17" s="55">
+        <f t="shared" ref="AZ17" si="98">AY17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="BA17" s="55">
+        <f t="shared" ref="BA17" si="99">AZ17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="BB17" s="55">
+        <f t="shared" ref="BB17" si="100">BA17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="BC17" s="55">
+        <f t="shared" ref="BC17" si="101">BB17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="BD17" s="55">
+        <f t="shared" ref="BD17" si="102">BC17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="BE17" s="55">
+        <f t="shared" ref="BE17" si="103">BD17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="BF17" s="55">
+        <f t="shared" ref="BF17" si="104">BE17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="BG17" s="55">
+        <f t="shared" ref="BG17" si="105">BF17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="BH17" s="55">
+        <f t="shared" ref="BH17" si="106">BG17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="BI17" s="55">
+        <f t="shared" ref="BI17" si="107">BH17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="BJ17" s="55">
+        <f t="shared" ref="BJ17" si="108">BI17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="BK17" s="55">
+        <f t="shared" ref="BK17" si="109">BJ17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="BL17" s="55">
+        <f t="shared" ref="BL17" si="110">BK17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="BM17" s="55">
+        <f t="shared" ref="BM17" si="111">BL17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="BN17" s="55">
+        <f t="shared" ref="BN17" si="112">BM17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="BO17" s="55">
+        <f t="shared" ref="BO17" si="113">BN17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="BP17" s="55">
+        <f t="shared" ref="BP17" si="114">BO17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="BQ17" s="55">
+        <f t="shared" ref="BQ17" si="115">BP17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="BR17" s="55">
+        <f t="shared" ref="BR17" si="116">BQ17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="BS17" s="55">
+        <f t="shared" ref="BS17" si="117">BR17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="BT17" s="55">
+        <f t="shared" ref="BT17" si="118">BS17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="BU17" s="55">
+        <f t="shared" ref="BU17" si="119">BT17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="BV17" s="55">
+        <f t="shared" ref="BV17" si="120">BU17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="BW17" s="55">
+        <f t="shared" ref="BW17" si="121">BV17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="BX17" s="55">
+        <f t="shared" ref="BX17" si="122">BW17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="BY17" s="55">
+        <f t="shared" ref="BY17" si="123">BX17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="BZ17" s="55">
+        <f t="shared" ref="BZ17" si="124">BY17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="CA17" s="55">
+        <f t="shared" ref="CA17" si="125">BZ17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+      <c r="CB17" s="55">
+        <f t="shared" ref="CB17" si="126">CA17*$W$21</f>
+        <v>39533.822576844235</v>
+      </c>
+    </row>
+    <row r="18" spans="2:80" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="19" spans="2:80" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="O19" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="P19" s="26"/>
+    </row>
+    <row r="20" spans="2:80" x14ac:dyDescent="0.55000000000000004">
+      <c r="H20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="O20" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="P20" s="51">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" spans="2:80" x14ac:dyDescent="0.55000000000000004">
+      <c r="I21" s="42">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O21" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="P20" s="54">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="I21" s="43">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="O21" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="P21" s="55">
+      <c r="P21" s="52">
         <v>7.8200000000000006E-2</v>
       </c>
       <c r="R21">
@@ -3338,19 +4145,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="O22" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="P22" s="56">
+    <row r="22" spans="2:80" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="O22" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="P22" s="66">
         <f>NPV(P21,H17:CV17)</f>
-        <v>516025.75991441449</v>
-      </c>
-      <c r="W22" s="52"/>
-    </row>
-    <row r="23" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>390977.59268140903</v>
+      </c>
+      <c r="W22" s="49"/>
+    </row>
+    <row r="23" spans="2:80" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="8">
         <f>C13/C7</f>
@@ -3372,15 +4179,19 @@
         <f>G13/G7</f>
         <v>8.7072347708155057E-2</v>
       </c>
-      <c r="O23" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="P23" s="57">
+      <c r="H23" s="8">
+        <f>H13/H7</f>
+        <v>8.0661440298992207E-2</v>
+      </c>
+      <c r="O23" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="P23" s="67">
         <f>P22/EV!E6</f>
-        <v>560.89756512436361</v>
-      </c>
-    </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+        <v>431.69815820928301</v>
+      </c>
+    </row>
+    <row r="24" spans="2:80" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
         <v>16</v>
       </c>
@@ -3404,10 +4215,21 @@
         <f>G17/G7</f>
         <v>6.2278336589330019E-2</v>
       </c>
-    </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="H24" s="8">
+        <f>H17/H7</f>
+        <v>3.8078535417884571E-2</v>
+      </c>
+      <c r="O24" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="P24" s="68">
+        <f>EV!E5</f>
+        <v>309.87</v>
+      </c>
+    </row>
+    <row r="25" spans="2:80" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8">
@@ -3426,10 +4248,21 @@
         <f>G7/F7-1</f>
         <v>0.14640827734281014</v>
       </c>
-    </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="H25" s="8">
+        <f>H7/G7-1</f>
+        <v>7.7110612396467326E-2</v>
+      </c>
+      <c r="O25" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="P25" s="53">
+        <f>P23-P24</f>
+        <v>121.828158209283</v>
+      </c>
+    </row>
+    <row r="26" spans="2:80" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8">
@@ -3448,401 +4281,442 @@
         <f>G12/F12-1</f>
         <v>0.14722024028918557</v>
       </c>
-    </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="M27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M28" t="s">
-        <v>48</v>
-      </c>
-      <c r="P28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="P29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="H26" s="8">
+        <f>H12/G12-1</f>
+        <v>8.4674471797774098E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:80" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="29" spans="2:80" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B29" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="2:80" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D30" s="42">
-        <f t="shared" ref="D30:G41" si="6">D3/C3-1</f>
+      <c r="D30" s="41">
+        <f t="shared" ref="D30:H41" si="127">D3/C3-1</f>
         <v>6.2093105393280945E-2</v>
       </c>
-      <c r="E30" s="42">
-        <f t="shared" si="6"/>
+      <c r="E30" s="41">
+        <f t="shared" si="127"/>
         <v>0.12286701277558842</v>
       </c>
-      <c r="F30" s="42">
-        <f t="shared" si="6"/>
+      <c r="F30" s="41">
+        <f t="shared" si="127"/>
         <v>0.13669093368341478</v>
       </c>
-      <c r="G30" s="42">
-        <f t="shared" si="6"/>
+      <c r="G30" s="41">
+        <f t="shared" si="127"/>
         <v>0.13093168764606844</v>
       </c>
-      <c r="H30" s="46">
-        <f>AVERAGE(D30:G30)</f>
-        <v>0.11314568487458815</v>
-      </c>
-      <c r="P30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="H30" s="41">
+        <f t="shared" si="127"/>
+        <v>6.1834011285059498E-2</v>
+      </c>
+      <c r="I30" s="45">
+        <f>AVERAGE(D30:H30)</f>
+        <v>0.10288335015668242</v>
+      </c>
+    </row>
+    <row r="31" spans="2:80" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="42">
-        <f t="shared" si="6"/>
+      <c r="D31" s="41">
+        <f t="shared" si="127"/>
         <v>8.0640567142450159E-2</v>
       </c>
-      <c r="E31" s="42">
-        <f t="shared" si="6"/>
+      <c r="E31" s="41">
+        <f t="shared" si="127"/>
         <v>8.5517645336066206E-3</v>
       </c>
-      <c r="F31" s="42">
-        <f t="shared" si="6"/>
+      <c r="F31" s="41">
+        <f t="shared" si="127"/>
         <v>8.6738101460638317E-2</v>
       </c>
-      <c r="G31" s="42">
-        <f t="shared" si="6"/>
+      <c r="G31" s="41">
+        <f t="shared" si="127"/>
         <v>0.13785271483539985</v>
       </c>
-      <c r="H31" s="46">
-        <f t="shared" ref="H31:H44" si="7">AVERAGE(D31:G31)</f>
-        <v>7.8445786993023736E-2</v>
-      </c>
-      <c r="P31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="H31" s="41">
+        <f t="shared" si="127"/>
+        <v>0.17948477091797188</v>
+      </c>
+      <c r="I31" s="45">
+        <f t="shared" ref="I31:I44" si="128">AVERAGE(D31:H31)</f>
+        <v>9.8653583778013365E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:80" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="42">
-        <f t="shared" si="6"/>
+      <c r="D32" s="41">
+        <f t="shared" si="127"/>
         <v>5.4972856164022588E-2</v>
       </c>
-      <c r="E32" s="42">
-        <f t="shared" si="6"/>
+      <c r="E32" s="41">
+        <f t="shared" si="127"/>
         <v>0.22916666666666674</v>
       </c>
-      <c r="F32" s="42">
-        <f t="shared" si="6"/>
+      <c r="F32" s="41">
+        <f t="shared" si="127"/>
         <v>0.1198227858391252</v>
       </c>
-      <c r="G32" s="42">
-        <f t="shared" si="6"/>
+      <c r="G32" s="41">
+        <f t="shared" si="127"/>
         <v>0.23853943595513782</v>
       </c>
-      <c r="H32" s="46">
-        <f t="shared" si="7"/>
-        <v>0.16062543615623809</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H32" s="41">
+        <f t="shared" si="127"/>
+        <v>5.6179116724789813E-2</v>
+      </c>
+      <c r="I32" s="45">
+        <f t="shared" si="128"/>
+        <v>0.13973617226994844</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="42">
-        <f t="shared" si="6"/>
+      <c r="D33" s="41">
+        <f t="shared" si="127"/>
         <v>-0.2036055143160127</v>
       </c>
-      <c r="E33" s="42">
-        <f t="shared" si="6"/>
+      <c r="E33" s="41">
+        <f t="shared" si="127"/>
         <v>0.54727030625832218</v>
       </c>
-      <c r="F33" s="42">
-        <f t="shared" si="6"/>
+      <c r="F33" s="41">
+        <f t="shared" si="127"/>
         <v>-0.12650602409638556</v>
       </c>
-      <c r="G33" s="42">
-        <f t="shared" si="6"/>
+      <c r="G33" s="41">
+        <f t="shared" si="127"/>
         <v>1.0142857142857142</v>
       </c>
-      <c r="H33" s="46">
-        <f t="shared" si="7"/>
-        <v>0.30786112053290954</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="48" t="s">
+      <c r="H33" s="41">
+        <f t="shared" si="127"/>
+        <v>0.27219369038884822</v>
+      </c>
+      <c r="I33" s="45">
+        <f t="shared" si="128"/>
+        <v>0.30072763450409729</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="42">
-        <f t="shared" si="6"/>
+      <c r="D34" s="60">
+        <f t="shared" si="127"/>
         <v>6.1885982118890848E-2</v>
       </c>
-      <c r="E34" s="42">
-        <f t="shared" si="6"/>
+      <c r="E34" s="60">
+        <f t="shared" si="127"/>
         <v>0.11844085540617799</v>
       </c>
-      <c r="F34" s="42">
-        <f t="shared" si="6"/>
+      <c r="F34" s="60">
+        <f t="shared" si="127"/>
         <v>0.12713971286209524</v>
       </c>
-      <c r="G34" s="42">
-        <f t="shared" si="6"/>
+      <c r="G34" s="60">
+        <f t="shared" si="127"/>
         <v>0.14640827734281014</v>
       </c>
-      <c r="H34" s="46">
-        <f t="shared" si="7"/>
-        <v>0.11346870693249356</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="60">
+        <f t="shared" si="127"/>
+        <v>7.7110612396467326E-2</v>
+      </c>
+      <c r="I34" s="61">
+        <f t="shared" si="128"/>
+        <v>0.10619708802528831</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="42">
-        <f t="shared" si="6"/>
+      <c r="D35" s="41">
+        <f t="shared" si="127"/>
         <v>1.8895423165430802E-2</v>
       </c>
-      <c r="E35" s="42">
-        <f t="shared" si="6"/>
+      <c r="E35" s="41">
+        <f t="shared" si="127"/>
         <v>0.17262039197972356</v>
       </c>
-      <c r="F35" s="42">
-        <f t="shared" si="6"/>
+      <c r="F35" s="41">
+        <f t="shared" si="127"/>
         <v>0.12803419809428007</v>
       </c>
-      <c r="G35" s="42">
-        <f t="shared" si="6"/>
+      <c r="G35" s="41">
+        <f t="shared" si="127"/>
         <v>0.14727615939898131</v>
       </c>
-      <c r="H35" s="46">
-        <f t="shared" si="7"/>
-        <v>0.11670654315960394</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H35" s="41">
+        <f t="shared" si="127"/>
+        <v>9.215193431833768E-2</v>
+      </c>
+      <c r="I35" s="45">
+        <f t="shared" si="128"/>
+        <v>0.11179562139135069</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="42">
-        <f t="shared" si="6"/>
+      <c r="D36" s="41">
+        <f t="shared" si="127"/>
         <v>0.18500838234876249</v>
       </c>
-      <c r="E36" s="42">
-        <f t="shared" si="6"/>
+      <c r="E36" s="41">
+        <f t="shared" si="127"/>
         <v>2.0981200844043757E-2</v>
       </c>
-      <c r="F36" s="42">
-        <f t="shared" si="6"/>
+      <c r="F36" s="41">
+        <f t="shared" si="127"/>
         <v>0.12219638789074416</v>
       </c>
-      <c r="G36" s="42">
-        <f t="shared" si="6"/>
+      <c r="G36" s="41">
+        <f t="shared" si="127"/>
         <v>0.14327571051860533</v>
       </c>
-      <c r="H36" s="46">
-        <f t="shared" si="7"/>
-        <v>0.11786542040053893</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H36" s="41">
+        <f t="shared" si="127"/>
+        <v>-2.956359376144102E-2</v>
+      </c>
+      <c r="I36" s="45">
+        <f t="shared" si="128"/>
+        <v>8.8379617568142943E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="42">
-        <f t="shared" si="6"/>
+      <c r="D37" s="41">
+        <f t="shared" si="127"/>
         <v>9.3466586051143441E-2</v>
       </c>
-      <c r="E37" s="42">
-        <f t="shared" si="6"/>
+      <c r="E37" s="41">
+        <f t="shared" si="127"/>
         <v>9.3999024231581352E-3</v>
       </c>
-      <c r="F37" s="42">
-        <f t="shared" si="6"/>
+      <c r="F37" s="41">
+        <f t="shared" si="127"/>
         <v>8.6002448926983277E-2</v>
       </c>
-      <c r="G37" s="42">
-        <f t="shared" si="6"/>
+      <c r="G37" s="41">
+        <f t="shared" si="127"/>
         <v>0.15034269946295575</v>
       </c>
-      <c r="H37" s="46">
-        <f t="shared" si="7"/>
-        <v>8.4802909216060152E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H37" s="41">
+        <f t="shared" si="127"/>
+        <v>0.2043848336342533</v>
+      </c>
+      <c r="I37" s="45">
+        <f t="shared" si="128"/>
+        <v>0.10871929409969878</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="42">
-        <f t="shared" si="6"/>
+      <c r="D38" s="41">
+        <f t="shared" si="127"/>
         <v>6.2867647058823639E-2</v>
       </c>
-      <c r="E38" s="42">
-        <f t="shared" si="6"/>
+      <c r="E38" s="41">
+        <f t="shared" si="127"/>
         <v>7.3331027326184683E-2</v>
       </c>
-      <c r="F38" s="42">
-        <f t="shared" si="6"/>
+      <c r="F38" s="41">
+        <f t="shared" si="127"/>
         <v>9.5713825330325575E-2</v>
       </c>
-      <c r="G38" s="42">
-        <f t="shared" si="6"/>
+      <c r="G38" s="41">
+        <f t="shared" si="127"/>
         <v>0.16823529411764704</v>
       </c>
-      <c r="H38" s="46">
-        <f t="shared" si="7"/>
-        <v>0.10003694845824523</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" s="48" t="s">
+      <c r="H38" s="41">
+        <f t="shared" si="127"/>
+        <v>3.1973816717019155E-2</v>
+      </c>
+      <c r="I38" s="45">
+        <f t="shared" si="128"/>
+        <v>8.6424322110000021E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="42">
-        <f t="shared" si="6"/>
+      <c r="D39" s="60">
+        <f t="shared" si="127"/>
         <v>5.5135523890861737E-2</v>
       </c>
-      <c r="E39" s="42">
-        <f t="shared" si="6"/>
+      <c r="E39" s="60">
+        <f t="shared" si="127"/>
         <v>0.12307869265898708</v>
       </c>
-      <c r="F39" s="42">
-        <f t="shared" si="6"/>
+      <c r="F39" s="60">
+        <f t="shared" si="127"/>
         <v>0.12176294537357712</v>
       </c>
-      <c r="G39" s="42">
-        <f t="shared" si="6"/>
+      <c r="G39" s="60">
+        <f t="shared" si="127"/>
         <v>0.14722024028918557</v>
       </c>
-      <c r="H39" s="46">
-        <f t="shared" si="7"/>
-        <v>0.11179935055315288</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="48" t="s">
+      <c r="H39" s="60">
+        <f t="shared" si="127"/>
+        <v>8.4674471797774098E-2</v>
+      </c>
+      <c r="I39" s="61">
+        <f t="shared" si="128"/>
+        <v>0.10637437480207712</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="42">
-        <f t="shared" si="6"/>
+      <c r="D40" s="60">
+        <f t="shared" si="127"/>
         <v>0.1381762763525527</v>
       </c>
-      <c r="E40" s="42">
-        <f t="shared" si="6"/>
+      <c r="E40" s="60">
+        <f t="shared" si="127"/>
         <v>6.9850479803615251E-2</v>
       </c>
-      <c r="F40" s="42">
-        <f t="shared" si="6"/>
+      <c r="F40" s="60">
+        <f t="shared" si="127"/>
         <v>0.18627450980392157</v>
       </c>
-      <c r="G40" s="42">
-        <f t="shared" si="6"/>
+      <c r="G40" s="60">
+        <f t="shared" si="127"/>
         <v>0.13796377703534368</v>
       </c>
-      <c r="H40" s="46">
-        <f t="shared" si="7"/>
-        <v>0.1330662607488583</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H40" s="60">
+        <f t="shared" si="127"/>
+        <v>-2.1942023610853623E-3</v>
+      </c>
+      <c r="I40" s="61">
+        <f t="shared" si="128"/>
+        <v>0.10601416812686956</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="42">
-        <f t="shared" si="6"/>
+      <c r="D41" s="41">
+        <f t="shared" si="127"/>
         <v>-2.4061032863849752E-2</v>
       </c>
-      <c r="E41" s="42">
-        <f t="shared" si="6"/>
+      <c r="E41" s="41">
+        <f t="shared" si="127"/>
         <v>-1.8039687312086938E-3</v>
       </c>
-      <c r="F41" s="42">
-        <f t="shared" si="6"/>
+      <c r="F41" s="41">
+        <f t="shared" si="127"/>
         <v>0.26024096385542173</v>
       </c>
-      <c r="G41" s="42">
-        <f t="shared" si="6"/>
+      <c r="G41" s="41">
+        <f t="shared" si="127"/>
         <v>0.55162523900573612</v>
       </c>
-      <c r="H41" s="46">
-        <f t="shared" si="7"/>
-        <v>0.19650030031652485</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H41" s="41">
+        <f t="shared" si="127"/>
+        <v>0.20332717190388161</v>
+      </c>
+      <c r="I41" s="45">
+        <f t="shared" si="128"/>
+        <v>0.19786567463399621</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="46"/>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="45"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="42">
-        <f t="shared" ref="D43:G44" si="8">D16/C16-1</f>
+      <c r="D43" s="41">
+        <f t="shared" ref="D43:H44" si="129">D16/C16-1</f>
         <v>0.32896846606093</v>
       </c>
-      <c r="E43" s="42">
-        <f t="shared" si="8"/>
+      <c r="E43" s="41">
+        <f t="shared" si="129"/>
         <v>-7.9428916147194828E-2</v>
       </c>
-      <c r="F43" s="42">
-        <f t="shared" si="8"/>
+      <c r="F43" s="41">
+        <f t="shared" si="129"/>
         <v>0.24595893403232849</v>
       </c>
-      <c r="G43" s="42">
-        <f t="shared" si="8"/>
+      <c r="G43" s="41">
+        <f t="shared" si="129"/>
         <v>4.628330995792429E-2</v>
       </c>
-      <c r="H43" s="46">
-        <f t="shared" si="7"/>
-        <v>0.13544544847599699</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="49" t="s">
+      <c r="H43" s="41">
+        <f t="shared" si="129"/>
+        <v>-0.1908512064343163</v>
+      </c>
+      <c r="I43" s="45">
+        <f t="shared" si="128"/>
+        <v>7.018611749393433E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B44" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="50"/>
-      <c r="D44" s="51">
-        <f t="shared" si="8"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="62">
+        <f t="shared" si="129"/>
         <v>0.10745136596671112</v>
       </c>
-      <c r="E44" s="51">
-        <f t="shared" si="8"/>
+      <c r="E44" s="62">
+        <f t="shared" si="129"/>
         <v>0.12448474855729597</v>
       </c>
-      <c r="F44" s="51">
-        <f t="shared" si="8"/>
+      <c r="F44" s="62">
+        <f t="shared" si="129"/>
         <v>0.16394089781186549</v>
       </c>
-      <c r="G44" s="51">
-        <f t="shared" si="8"/>
+      <c r="G44" s="62">
+        <f t="shared" si="129"/>
         <v>0.12137215950385194</v>
       </c>
-      <c r="H44" s="47">
-        <f t="shared" si="7"/>
-        <v>0.12931229295993113</v>
+      <c r="H44" s="62">
+        <f t="shared" si="129"/>
+        <v>-0.34142758382302107</v>
+      </c>
+      <c r="I44" s="63">
+        <f t="shared" si="128"/>
+        <v>3.516431760334069E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3863,14 +4737,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3887,14 +4761,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
